--- a/DOC/myTable_withDetails_vColor.xlsx
+++ b/DOC/myTable_withDetails_vColor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\OneDrive\Documents\GitHub\VAMOS_treeEpidemio\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06291F-4960-4EC7-9506-F2F5EB1158BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCF57A-A1CA-4772-AF8B-0D0C448AC509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{018E03B6-C629-497E-A698-5B64CC47775D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="171">
   <si>
     <t xml:space="preserve">Column explanations										</t>
   </si>
@@ -546,12 +546,6 @@
   </si>
   <si>
     <t>Roe et al., 2023</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>StartYear is one year before submission date</t>
   </si>
 </sst>
 </file>
@@ -694,7 +688,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,6 +892,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1059,12 +1059,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1440,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A1D988-B4C5-4C91-B1A8-A590BAD528E0}">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E118" workbookViewId="0">
-      <selection activeCell="L137" sqref="L137"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,57 +1458,57 @@
     <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1547,11 +1548,8 @@
       <c r="M11" t="s">
         <v>131</v>
       </c>
-      <c r="N11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1578,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1665,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1753,14 +1751,11 @@
       <c r="K18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1782,14 +1777,11 @@
       <c r="K19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1811,14 +1803,11 @@
       <c r="K20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1840,14 +1829,11 @@
       <c r="K21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,14 +1855,11 @@
       <c r="K22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="1">
-        <v>2010</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1898,14 +1881,11 @@
       <c r="K23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1927,14 +1907,11 @@
       <c r="K24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1956,14 +1933,11 @@
       <c r="K25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1985,14 +1959,11 @@
       <c r="K26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2014,14 +1985,11 @@
       <c r="K27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
@@ -2050,7 +2018,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="29" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
@@ -2082,7 +2050,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="30" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2108,7 +2076,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
@@ -2137,7 +2105,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
@@ -2597,7 +2565,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="49" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
@@ -2619,14 +2587,11 @@
       <c r="K49" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L49" s="3">
-        <v>2019</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
@@ -2648,14 +2613,11 @@
       <c r="K50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L50" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
@@ -2677,14 +2639,11 @@
       <c r="K51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L51" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>72</v>
       </c>
@@ -2706,14 +2665,11 @@
       <c r="K52" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L52" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>63</v>
       </c>
@@ -2739,7 +2695,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="54" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
@@ -2768,7 +2724,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="55" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2797,7 +2753,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="56" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2826,7 +2782,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="57" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>63</v>
       </c>
@@ -2855,7 +2811,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="58" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>63</v>
       </c>
@@ -2884,7 +2840,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="59" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
@@ -2916,7 +2872,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="60" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
@@ -2945,7 +2901,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="61" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2974,7 +2930,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="62" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>35</v>
       </c>
@@ -3000,7 +2956,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>35</v>
       </c>
@@ -3029,7 +2985,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>72</v>
       </c>
@@ -3051,14 +3007,11 @@
       <c r="K64" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L64" s="3">
-        <v>2022</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
@@ -3080,14 +3033,11 @@
       <c r="K65" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L65" s="3">
-        <v>2022</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -3109,14 +3059,11 @@
       <c r="K66" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L66" s="3">
-        <v>2022</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
@@ -3145,7 +3092,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="68" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>63</v>
       </c>
@@ -3174,7 +3121,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>63</v>
       </c>
@@ -3203,7 +3150,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>63</v>
       </c>
@@ -3232,7 +3179,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="71" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>63</v>
       </c>
@@ -3261,7 +3208,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="72" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>63</v>
       </c>
@@ -3290,7 +3237,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="73" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>63</v>
       </c>
@@ -3319,7 +3266,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="74" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>63</v>
       </c>
@@ -3348,7 +3295,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="75" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>63</v>
       </c>
@@ -3377,7 +3324,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="76" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>63</v>
       </c>
@@ -3406,7 +3353,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="77" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>63</v>
       </c>
@@ -3438,7 +3385,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="78" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>63</v>
       </c>
@@ -3467,7 +3414,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="79" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>63</v>
       </c>
@@ -3499,7 +3446,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="80" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>145</v>
       </c>
